--- a/comratio/cratios/RandomMedium_10.xlsx
+++ b/comratio/cratios/RandomMedium_10.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>sz</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ZFP</t>
+          <t>zfp</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>FPZIP</t>
+          <t>fpzip</t>
         </is>
       </c>
     </row>
@@ -463,13 +463,13 @@
         <v>0.0078125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0072021484375</v>
+        <v>0.0140380859375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0072021484375</v>
+        <v>0.0048828125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0072021484375</v>
+        <v>0.0224609375</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01171875</v>
+        <v>0.015625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00732421875</v>
+        <v>0.0145263671875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00732421875</v>
+        <v>0.0048828125</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00732421875</v>
+        <v>0.00927734375</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01171875</v>
+        <v>0.01953125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0224609375</v>
+        <v>0.014892578125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0224609375</v>
+        <v>0.0048828125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0224609375</v>
+        <v>0.00927734375</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01953125</v>
+        <v>0.03515625</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0096435546875</v>
+        <v>0.0157470703125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0096435546875</v>
+        <v>0.0048828125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0096435546875</v>
+        <v>0.013671875</v>
       </c>
     </row>
     <row r="6">
@@ -531,13 +531,13 @@
         <v>0.03515625</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01416015625</v>
+        <v>0.0157470703125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01416015625</v>
+        <v>0.0048828125</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01416015625</v>
+        <v>0.029052734375</v>
       </c>
     </row>
     <row r="7">
@@ -548,13 +548,13 @@
         <v>0.03515625</v>
       </c>
       <c r="C7" t="n">
-        <v>0.014892578125</v>
+        <v>0.0157470703125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.014892578125</v>
+        <v>0.0048828125</v>
       </c>
       <c r="E7" t="n">
-        <v>0.014892578125</v>
+        <v>0.029296875</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +562,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03515625</v>
+        <v>0.06640625</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0316162109375</v>
+        <v>0.0167236328125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0316162109375</v>
+        <v>0.005859375</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0316162109375</v>
+        <v>0.0220947265625</v>
       </c>
     </row>
     <row r="9">
@@ -582,13 +582,13 @@
         <v>0.06640625</v>
       </c>
       <c r="C9" t="n">
-        <v>0.043701171875</v>
+        <v>0.01708984375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.043701171875</v>
+        <v>0.005859375</v>
       </c>
       <c r="E9" t="n">
-        <v>0.043701171875</v>
+        <v>0.022216796875</v>
       </c>
     </row>
     <row r="10">
@@ -599,13 +599,13 @@
         <v>0.06640625</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04345703125</v>
+        <v>0.01708984375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04345703125</v>
+        <v>0.005859375</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04345703125</v>
+        <v>0.044677734375</v>
       </c>
     </row>
     <row r="11">
@@ -616,13 +616,13 @@
         <v>0.12890625</v>
       </c>
       <c r="C11" t="n">
-        <v>0.040771484375</v>
+        <v>0.0184326171875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.040771484375</v>
+        <v>0.0078125</v>
       </c>
       <c r="E11" t="n">
-        <v>0.040771484375</v>
+        <v>0.03857421875</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.12890625</v>
+        <v>0.06640625</v>
       </c>
       <c r="C12" t="n">
-        <v>0.040771484375</v>
+        <v>0.0177001953125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.040771484375</v>
+        <v>0.0068359375</v>
       </c>
       <c r="E12" t="n">
-        <v>0.040771484375</v>
+        <v>0.0240478515625</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +647,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.19140625</v>
+        <v>0.09765625</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06005859374999999</v>
+        <v>0.0194091796875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06005859374999999</v>
+        <v>0.0068359375</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06005859374999999</v>
+        <v>0.0458984375</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +664,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.19140625</v>
+        <v>0.09765625</v>
       </c>
       <c r="C14" t="n">
-        <v>0.060302734375</v>
+        <v>0.0205078125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.060302734375</v>
+        <v>0.0068359375</v>
       </c>
       <c r="E14" t="n">
-        <v>0.060302734375</v>
+        <v>0.0457763671875</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +681,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.19140625</v>
+        <v>0.09765625</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05993652343750001</v>
+        <v>0.0233154296875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05993652343750001</v>
+        <v>0.0068359375</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05993652343750001</v>
+        <v>0.0316162109375</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +698,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.19140625</v>
+        <v>0.17578125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0740966796875</v>
+        <v>0.0264892578125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0740966796875</v>
+        <v>0.009765625</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0740966796875</v>
+        <v>0.057373046875</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.36328125</v>
+        <v>0.17578125</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1126708984375</v>
+        <v>0.0264892578125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1126708984375</v>
+        <v>0.009765625</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1126708984375</v>
+        <v>0.07373046875</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +732,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6875</v>
+        <v>0.17578125</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2135009765625</v>
+        <v>0.0264892578125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2135009765625</v>
+        <v>0.009765625</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2135009765625</v>
+        <v>0.07373046875</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +749,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6875</v>
+        <v>0.296875</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213134765625</v>
+        <v>0.0570068359375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.213134765625</v>
+        <v>0.015625</v>
       </c>
       <c r="E19" t="n">
-        <v>0.213134765625</v>
+        <v>0.1148681640625</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +766,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6875</v>
+        <v>0.546875</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2227783203125</v>
+        <v>0.0872802734375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2227783203125</v>
+        <v>0.0283203125</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2227783203125</v>
+        <v>0.2138671875</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +783,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6875</v>
+        <v>0.546875</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2227783203125</v>
+        <v>0.0872802734375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2227783203125</v>
+        <v>0.0283203125</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2227783203125</v>
+        <v>0.2137451171875</v>
       </c>
     </row>
     <row r="22">
@@ -800,16 +800,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.00390625</v>
+        <v>0.953125</v>
       </c>
       <c r="C22" t="n">
-        <v>0.32421875</v>
+        <v>0.1141357421875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.32421875</v>
+        <v>0.03125</v>
       </c>
       <c r="E22" t="n">
-        <v>0.32421875</v>
+        <v>0.34033203125</v>
       </c>
     </row>
     <row r="23">
@@ -817,16 +817,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.00390625</v>
+        <v>0.86328125</v>
       </c>
       <c r="C23" t="n">
-        <v>0.326171875</v>
+        <v>0.1165771484375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.326171875</v>
+        <v>0.03125</v>
       </c>
       <c r="E23" t="n">
-        <v>0.326171875</v>
+        <v>0.3228759765625</v>
       </c>
     </row>
     <row r="24">
@@ -834,16 +834,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.75390625</v>
+        <v>0.86328125</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5166015625</v>
+        <v>0.1165771484375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5166015625</v>
+        <v>0.03125</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5166015625</v>
+        <v>0.3336181640625</v>
       </c>
     </row>
     <row r="25">
@@ -851,16 +851,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.75390625</v>
+        <v>0.95703125</v>
       </c>
       <c r="C25" t="n">
-        <v>0.513916015625</v>
+        <v>0.1221923828125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.513916015625</v>
+        <v>0.03125</v>
       </c>
       <c r="E25" t="n">
-        <v>0.513916015625</v>
+        <v>0.3228759765625</v>
       </c>
     </row>
     <row r="26">
@@ -868,16 +868,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.75390625</v>
+        <v>0.95703125</v>
       </c>
       <c r="C26" t="n">
-        <v>0.521728515625</v>
+        <v>0.1207275390625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.521728515625</v>
+        <v>0.03125</v>
       </c>
       <c r="E26" t="n">
-        <v>0.521728515625</v>
+        <v>0.33447265625</v>
       </c>
     </row>
     <row r="27">
@@ -885,16 +885,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.87890625</v>
+        <v>1.67578125</v>
       </c>
       <c r="C27" t="n">
-        <v>0.518798828125</v>
+        <v>0.240234375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.518798828125</v>
+        <v>0.0576171875</v>
       </c>
       <c r="E27" t="n">
-        <v>0.518798828125</v>
+        <v>0.6334228515625</v>
       </c>
     </row>
     <row r="28">
@@ -902,16 +902,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.87890625</v>
+        <v>0.95703125</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5205078125</v>
+        <v>0.1539306640625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5205078125</v>
+        <v>0.0576171875</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5205078125</v>
+        <v>0.6209716796875</v>
       </c>
     </row>
     <row r="29">
@@ -919,16 +919,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.87890625</v>
+        <v>0.87890625</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5205078125</v>
+        <v>0.1456298828125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5205078125</v>
+        <v>0.056640625</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5205078125</v>
+        <v>0.623046875</v>
       </c>
     </row>
     <row r="30">
@@ -936,16 +936,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.875</v>
+        <v>0.87890625</v>
       </c>
       <c r="C30" t="n">
-        <v>0.520751953125</v>
+        <v>0.16357421875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.520751953125</v>
+        <v>0.056640625</v>
       </c>
       <c r="E30" t="n">
-        <v>0.520751953125</v>
+        <v>0.6231689453125</v>
       </c>
     </row>
     <row r="31">
@@ -953,16 +953,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0.87890625</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5174560546875</v>
+        <v>0.16357421875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5174560546875</v>
+        <v>0.056640625</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5174560546875</v>
+        <v>0.6231689453125</v>
       </c>
     </row>
     <row r="32">
@@ -970,16 +970,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0.87890625</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5257568359375</v>
+        <v>0.1636962890625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5257568359375</v>
+        <v>0.056640625</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5257568359375</v>
+        <v>0.6231689453125</v>
       </c>
     </row>
     <row r="33">
@@ -987,16 +987,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0.87890625</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5250244140625</v>
+        <v>0.130615234375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5250244140625</v>
+        <v>0.056640625</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5250244140625</v>
+        <v>0.623291015625</v>
       </c>
     </row>
     <row r="34">
@@ -1004,16 +1004,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0.87890625</v>
       </c>
       <c r="C34" t="n">
-        <v>0.52587890625</v>
+        <v>0.2008056640625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.52587890625</v>
+        <v>0.056640625</v>
       </c>
       <c r="E34" t="n">
-        <v>0.52587890625</v>
+        <v>0.623291015625</v>
       </c>
     </row>
     <row r="35">
@@ -1021,16 +1021,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0.81640625</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5250244140625</v>
+        <v>0.227294921875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5250244140625</v>
+        <v>0.056640625</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5250244140625</v>
+        <v>0.55810546875</v>
       </c>
     </row>
     <row r="36">
@@ -1038,16 +1038,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.73828125</v>
+        <v>0.82421875</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5162353515625</v>
+        <v>0.2392578125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5162353515625</v>
+        <v>0.0556640625</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5162353515625</v>
+        <v>0.56689453125</v>
       </c>
     </row>
     <row r="37">
@@ -1055,16 +1055,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.73828125</v>
+        <v>0.82421875</v>
       </c>
       <c r="C37" t="n">
-        <v>0.51611328125</v>
+        <v>0.2098388671875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.51611328125</v>
+        <v>0.0556640625</v>
       </c>
       <c r="E37" t="n">
-        <v>0.51611328125</v>
+        <v>0.567138671875</v>
       </c>
     </row>
     <row r="38">
@@ -1072,16 +1072,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.74609375</v>
+        <v>0.83984375</v>
       </c>
       <c r="C38" t="n">
-        <v>0.515869140625</v>
+        <v>0.2080078125</v>
       </c>
       <c r="D38" t="n">
-        <v>0.515869140625</v>
+        <v>0.0556640625</v>
       </c>
       <c r="E38" t="n">
-        <v>0.515869140625</v>
+        <v>0.567138671875</v>
       </c>
     </row>
     <row r="39">
@@ -1089,16 +1089,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.75390625</v>
+        <v>0.84765625</v>
       </c>
       <c r="C39" t="n">
-        <v>0.517333984375</v>
+        <v>0.1226806640625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.517333984375</v>
+        <v>0.0556640625</v>
       </c>
       <c r="E39" t="n">
-        <v>0.517333984375</v>
+        <v>0.59619140625</v>
       </c>
     </row>
     <row r="40">
@@ -1106,16 +1106,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.875</v>
+        <v>0.83984375</v>
       </c>
       <c r="C40" t="n">
-        <v>0.525390625</v>
+        <v>0.1270751953125</v>
       </c>
       <c r="D40" t="n">
-        <v>0.525390625</v>
+        <v>0.056640625</v>
       </c>
       <c r="E40" t="n">
-        <v>0.525390625</v>
+        <v>0.5958251953125</v>
       </c>
     </row>
     <row r="41">
@@ -1123,16 +1123,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.85546875</v>
+        <v>0.75390625</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5135498046875</v>
+        <v>0.0810546875</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5135498046875</v>
+        <v>0.0556640625</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5135498046875</v>
+        <v>0.584716796875</v>
       </c>
     </row>
     <row r="42">
@@ -1140,16 +1140,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.95703125</v>
+        <v>0.66015625</v>
       </c>
       <c r="C42" t="n">
-        <v>0.50927734375</v>
+        <v>0.123291015625</v>
       </c>
       <c r="D42" t="n">
-        <v>0.50927734375</v>
+        <v>0.0546875</v>
       </c>
       <c r="E42" t="n">
-        <v>0.50927734375</v>
+        <v>0.6029052734375</v>
       </c>
     </row>
     <row r="43">
@@ -1157,16 +1157,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.83984375</v>
+        <v>1.19140625</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5113525390625</v>
+        <v>0.239013671875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5113525390625</v>
+        <v>0.10546875</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5113525390625</v>
+        <v>0.962646484375</v>
       </c>
     </row>
     <row r="44">
@@ -1174,16 +1174,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.83984375</v>
+        <v>1.33203125</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5113525390625</v>
+        <v>0.385009765625</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5113525390625</v>
+        <v>0.10546875</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5113525390625</v>
+        <v>0.9649658203124999</v>
       </c>
     </row>
     <row r="45">
@@ -1191,16 +1191,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.84765625</v>
+        <v>1.75390625</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5191650390625</v>
+        <v>0.279052734375</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5191650390625</v>
+        <v>0.10546875</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5191650390625</v>
+        <v>0.9637451171874999</v>
       </c>
     </row>
     <row r="46">
@@ -1208,16 +1208,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.85546875</v>
+        <v>1.86328125</v>
       </c>
       <c r="C46" t="n">
-        <v>0.519287109375</v>
+        <v>0.3153076171875</v>
       </c>
       <c r="D46" t="n">
-        <v>0.519287109375</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E46" t="n">
-        <v>0.519287109375</v>
+        <v>0.9631347656250001</v>
       </c>
     </row>
     <row r="47">
@@ -1225,16 +1225,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.84765625</v>
+        <v>1.86328125</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5189208984375</v>
+        <v>0.318115234375</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5189208984375</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5189208984375</v>
+        <v>0.96337890625</v>
       </c>
     </row>
     <row r="48">
@@ -1242,16 +1242,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.84765625</v>
+        <v>3.484375</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5181884765625</v>
+        <v>0.7940673828124999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5181884765625</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5181884765625</v>
+        <v>0.9637451171874999</v>
       </c>
     </row>
     <row r="49">
@@ -1259,16 +1259,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.5390625</v>
+        <v>3.484375</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9610595703125</v>
+        <v>0.9317626953124999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9610595703125</v>
+        <v>0.10546875</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9610595703125</v>
+        <v>0.9638671874999999</v>
       </c>
     </row>
     <row r="50">
@@ -1276,16 +1276,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.5390625</v>
+        <v>3.3203125</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9609374999999999</v>
+        <v>0.9780273437499999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9609374999999999</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9609374999999999</v>
+        <v>0.9625244140625</v>
       </c>
     </row>
     <row r="51">
@@ -1293,16 +1293,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.6640625</v>
+        <v>3.3203125</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9560546875</v>
+        <v>0.9780273437499999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9560546875</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9560546875</v>
+        <v>0.9686279296875</v>
       </c>
     </row>
     <row r="52">
@@ -1310,16 +1310,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.9375</v>
+        <v>3.32421875</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9443359374999999</v>
+        <v>0.9780273437499999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9443359374999999</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9443359374999999</v>
+        <v>0.9696044921874999</v>
       </c>
     </row>
     <row r="53">
@@ -1327,16 +1327,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.62109375</v>
+        <v>3.609375</v>
       </c>
       <c r="C53" t="n">
-        <v>0.953125</v>
+        <v>0.9783935546874999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.953125</v>
+        <v>0.10546875</v>
       </c>
       <c r="E53" t="n">
-        <v>0.953125</v>
+        <v>0.9689941406249999</v>
       </c>
     </row>
     <row r="54">
@@ -1344,16 +1344,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.61328125</v>
+        <v>2.4453125</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9550781249999999</v>
+        <v>0.9796142578125</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9550781249999999</v>
+        <v>0.1044921875</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9550781249999999</v>
+        <v>0.967529296875</v>
       </c>
     </row>
     <row r="55">
@@ -1361,16 +1361,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.6171875</v>
+        <v>3.6328125</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9558105468749999</v>
+        <v>0.9779052734375001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9558105468749999</v>
+        <v>0.1044921875</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9558105468749999</v>
+        <v>0.9683837890625</v>
       </c>
     </row>
     <row r="56">
@@ -1378,16 +1378,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.61328125</v>
+        <v>3.6328125</v>
       </c>
       <c r="C56" t="n">
-        <v>0.954345703125</v>
+        <v>0.9779052734375001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.954345703125</v>
+        <v>0.1044921875</v>
       </c>
       <c r="E56" t="n">
-        <v>0.954345703125</v>
+        <v>0.9682617187499999</v>
       </c>
     </row>
     <row r="57">
@@ -1395,16 +1395,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.5625</v>
+        <v>3.515625</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9537353515625</v>
+        <v>0.9781494140624999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9537353515625</v>
+        <v>0.10546875</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9537353515625</v>
+        <v>0.9689941406249999</v>
       </c>
     </row>
     <row r="58">
@@ -1412,16 +1412,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.5625</v>
+        <v>3.515625</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9537353515625</v>
+        <v>0.9787597656249999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9537353515625</v>
+        <v>0.10546875</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9537353515625</v>
+        <v>0.9689941406249999</v>
       </c>
     </row>
     <row r="59">
@@ -1429,16 +1429,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.5625</v>
+        <v>3.515625</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9539794921875</v>
+        <v>0.9788818359374999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9539794921875</v>
+        <v>0.10546875</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9539794921875</v>
+        <v>0.9691162109374999</v>
       </c>
     </row>
     <row r="60">
@@ -1446,16 +1446,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.8359375</v>
+        <v>3.2265625</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9598388671874999</v>
+        <v>0.9771728515625</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9598388671874999</v>
+        <v>0.10546875</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9598388671874999</v>
+        <v>0.9650878906250001</v>
       </c>
     </row>
     <row r="61">
@@ -1463,16 +1463,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.890625</v>
+        <v>3.2265625</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9364013671875001</v>
+        <v>0.9775390625</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9364013671875001</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9364013671875001</v>
+        <v>0.9613037109375</v>
       </c>
     </row>
     <row r="62">
@@ -1480,16 +1480,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.4765625</v>
+        <v>3.2265625</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9716796874999999</v>
+        <v>0.9775390625</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9716796874999999</v>
+        <v>0.10546875</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9716796874999999</v>
+        <v>0.965576171875</v>
       </c>
     </row>
     <row r="63">
@@ -1497,16 +1497,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.609375</v>
+        <v>3.17578125</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9621582031249999</v>
+        <v>0.9790039062500001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9621582031249999</v>
+        <v>0.10546875</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9621582031249999</v>
+        <v>0.9627685546874999</v>
       </c>
     </row>
     <row r="64">
@@ -1514,16 +1514,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.6328125</v>
+        <v>3.17578125</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9620361328125001</v>
+        <v>0.979248046875</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9620361328125001</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9620361328125001</v>
+        <v>0.9625244140625</v>
       </c>
     </row>
     <row r="65">
@@ -1531,16 +1531,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.65625</v>
+        <v>2.44140625</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9656982421874999</v>
+        <v>0.9793701171874999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9656982421874999</v>
+        <v>0.10546875</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9656982421874999</v>
+        <v>0.9647216796875</v>
       </c>
     </row>
     <row r="66">
@@ -1548,16 +1548,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.3828125</v>
+        <v>2.44140625</v>
       </c>
       <c r="C66" t="n">
-        <v>0.962646484375</v>
+        <v>0.9785156250000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.962646484375</v>
+        <v>0.10546875</v>
       </c>
       <c r="E66" t="n">
-        <v>0.962646484375</v>
+        <v>0.96484375</v>
       </c>
     </row>
     <row r="67">
@@ -1565,16 +1565,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.3828125</v>
+        <v>2.44140625</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9620361328125001</v>
+        <v>0.9793701171874999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9620361328125001</v>
+        <v>0.10546875</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9620361328125001</v>
+        <v>0.9644775390625</v>
       </c>
     </row>
     <row r="68">
@@ -1582,16 +1582,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.8125</v>
+        <v>2.64453125</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9620361328125001</v>
+        <v>0.9782714843749999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9620361328125001</v>
+        <v>0.1044921875</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9620361328125001</v>
+        <v>0.9649658203124999</v>
       </c>
     </row>
     <row r="69">
@@ -1599,16 +1599,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.9765625</v>
+        <v>2.64453125</v>
       </c>
       <c r="C69" t="n">
-        <v>0.96240234375</v>
+        <v>0.9782714843749999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.96240234375</v>
+        <v>0.1044921875</v>
       </c>
       <c r="E69" t="n">
-        <v>0.96240234375</v>
+        <v>0.9649658203124999</v>
       </c>
     </row>
     <row r="70">
@@ -1616,16 +1616,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.6484375</v>
+        <v>2.64453125</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9620361328125001</v>
+        <v>0.9782714843749999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9620361328125001</v>
+        <v>0.1044921875</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9620361328125001</v>
+        <v>0.9650878906250001</v>
       </c>
     </row>
     <row r="71">
@@ -1633,16 +1633,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.6484375</v>
+        <v>2.64453125</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9621582031249999</v>
+        <v>0.9779052734375001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9621582031249999</v>
+        <v>0.1044921875</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9621582031249999</v>
+        <v>0.9649658203124999</v>
       </c>
     </row>
     <row r="72">
@@ -1650,16 +1650,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.6484375</v>
+        <v>2.64453125</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9625244140625</v>
+        <v>0.977783203125</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9625244140625</v>
+        <v>0.1044921875</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9625244140625</v>
+        <v>0.964599609375</v>
       </c>
     </row>
     <row r="73">
@@ -1667,16 +1667,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.671875</v>
+        <v>2.64453125</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9636230468749999</v>
+        <v>0.9785156250000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9636230468749999</v>
+        <v>0.1044921875</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9636230468749999</v>
+        <v>0.96484375</v>
       </c>
     </row>
     <row r="74">
@@ -1684,16 +1684,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.74609375</v>
+        <v>2.64453125</v>
       </c>
       <c r="C74" t="n">
-        <v>0.968017578125</v>
+        <v>0.9783935546874999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.968017578125</v>
+        <v>0.1044921875</v>
       </c>
       <c r="E74" t="n">
-        <v>0.968017578125</v>
+        <v>0.96484375</v>
       </c>
     </row>
     <row r="75">
@@ -1701,16 +1701,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.77734375</v>
+        <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9727783203124999</v>
+        <v>0.2515869140625</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9727783203124999</v>
+        <v>0.103515625</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9727783203124999</v>
+        <v>0.9582519531250001</v>
       </c>
     </row>
     <row r="76">
@@ -1718,16 +1718,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.77734375</v>
+        <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9727783203124999</v>
+        <v>0.251953125</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9727783203124999</v>
+        <v>0.103515625</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9727783203124999</v>
+        <v>0.9582519531250001</v>
       </c>
     </row>
     <row r="77">
@@ -1735,16 +1735,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.78125</v>
+        <v>2.0078125</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9726562500000001</v>
+        <v>0.241943359375</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9726562500000001</v>
+        <v>0.103515625</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9726562500000001</v>
+        <v>0.9583740234374999</v>
       </c>
     </row>
     <row r="78">
@@ -1752,16 +1752,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.7734375</v>
+        <v>2.015625</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9699707031249999</v>
+        <v>0.242919921875</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9699707031249999</v>
+        <v>0.103515625</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9699707031249999</v>
+        <v>0.959228515625</v>
       </c>
     </row>
     <row r="79">
@@ -1769,16 +1769,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.81640625</v>
+        <v>2.32421875</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9813232421875</v>
+        <v>0.9776611328124999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9813232421875</v>
+        <v>0.1044921875</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9813232421875</v>
+        <v>0.9696044921874999</v>
       </c>
     </row>
     <row r="80">
@@ -1786,16 +1786,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.5078125</v>
+        <v>1.9609375</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8848876953125001</v>
+        <v>0.5941162109375</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8848876953125001</v>
+        <v>0.11328125</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8848876953125001</v>
+        <v>0.7418212890625</v>
       </c>
     </row>
     <row r="81">
@@ -1803,16 +1803,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.515625</v>
+        <v>2.38671875</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9113769531249999</v>
+        <v>0.6328125</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9113769531249999</v>
+        <v>0.1123046875</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9113769531249999</v>
+        <v>0.866943359375</v>
       </c>
     </row>
     <row r="82">
@@ -1820,16 +1820,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.5078125</v>
+        <v>2.4140625</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8857421875</v>
+        <v>0.6328125</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8857421875</v>
+        <v>0.1123046875</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8857421875</v>
+        <v>0.8648681640625</v>
       </c>
     </row>
     <row r="83">
@@ -1837,16 +1837,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.56640625</v>
+        <v>2.38671875</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8956298828125</v>
+        <v>0.6329345703125</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8956298828125</v>
+        <v>0.1123046875</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8956298828125</v>
+        <v>0.86669921875</v>
       </c>
     </row>
     <row r="84">
@@ -1854,16 +1854,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.5625</v>
+        <v>2.4140625</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9002685546875</v>
+        <v>0.6328125</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9002685546875</v>
+        <v>0.1123046875</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9002685546875</v>
+        <v>0.8660888671875</v>
       </c>
     </row>
     <row r="85">
@@ -1871,16 +1871,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.85546875</v>
+        <v>2.625</v>
       </c>
       <c r="C85" t="n">
-        <v>0.904296875</v>
+        <v>0.637451171875</v>
       </c>
       <c r="D85" t="n">
-        <v>0.904296875</v>
+        <v>0.1123046875</v>
       </c>
       <c r="E85" t="n">
-        <v>0.904296875</v>
+        <v>0.8660888671875</v>
       </c>
     </row>
     <row r="86">
@@ -1888,16 +1888,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.85546875</v>
+        <v>2.6328125</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9049072265624999</v>
+        <v>0.63720703125</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9049072265624999</v>
+        <v>0.1123046875</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9049072265624999</v>
+        <v>0.8658447265624999</v>
       </c>
     </row>
     <row r="87">
@@ -1905,16 +1905,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.85546875</v>
+        <v>2.62890625</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9046630859374999</v>
+        <v>0.63720703125</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9046630859374999</v>
+        <v>0.1123046875</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9046630859374999</v>
+        <v>0.8658447265624999</v>
       </c>
     </row>
     <row r="88">
@@ -1922,16 +1922,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.44921875</v>
+        <v>2.41796875</v>
       </c>
       <c r="C88" t="n">
-        <v>0.905029296875</v>
+        <v>0.6370849609375</v>
       </c>
       <c r="D88" t="n">
-        <v>0.905029296875</v>
+        <v>0.1123046875</v>
       </c>
       <c r="E88" t="n">
-        <v>0.905029296875</v>
+        <v>0.8670654296875</v>
       </c>
     </row>
     <row r="89">
@@ -1939,16 +1939,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.70703125</v>
+        <v>2.4140625</v>
       </c>
       <c r="C89" t="n">
-        <v>0.904296875</v>
+        <v>0.636962890625</v>
       </c>
       <c r="D89" t="n">
-        <v>0.904296875</v>
+        <v>0.1123046875</v>
       </c>
       <c r="E89" t="n">
-        <v>0.904296875</v>
+        <v>0.866943359375</v>
       </c>
     </row>
     <row r="90">
@@ -1956,16 +1956,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.18359375</v>
+        <v>2.3671875</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9205322265625</v>
+        <v>0.637451171875</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9205322265625</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9205322265625</v>
+        <v>0.8631591796875001</v>
       </c>
     </row>
     <row r="91">
@@ -1973,16 +1973,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.125</v>
+        <v>2.40625</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9128417968750001</v>
+        <v>0.63720703125</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9128417968750001</v>
+        <v>0.1123046875</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9128417968750001</v>
+        <v>0.86669921875</v>
       </c>
     </row>
     <row r="92">
@@ -1990,16 +1990,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.65625</v>
+        <v>2.4140625</v>
       </c>
       <c r="C92" t="n">
-        <v>0.927001953125</v>
+        <v>0.636962890625</v>
       </c>
       <c r="D92" t="n">
-        <v>0.927001953125</v>
+        <v>0.1123046875</v>
       </c>
       <c r="E92" t="n">
-        <v>0.927001953125</v>
+        <v>0.8668212890625001</v>
       </c>
     </row>
     <row r="93">
@@ -2007,16 +2007,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.68359375</v>
+        <v>2.390625</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9318847656249999</v>
+        <v>0.6378173828125</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9318847656249999</v>
+        <v>0.1123046875</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9318847656249999</v>
+        <v>0.87060546875</v>
       </c>
     </row>
     <row r="94">
@@ -2024,16 +2024,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.04296875</v>
+        <v>2.390625</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9213867187499999</v>
+        <v>0.6378173828125</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9213867187499999</v>
+        <v>0.1123046875</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9213867187499999</v>
+        <v>0.866943359375</v>
       </c>
     </row>
     <row r="95">
@@ -2041,16 +2041,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.03125</v>
+        <v>2.390625</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9205322265625</v>
+        <v>0.637939453125</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9205322265625</v>
+        <v>0.1123046875</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9205322265625</v>
+        <v>0.8675537109375</v>
       </c>
     </row>
     <row r="96">
@@ -2058,16 +2058,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.0390625</v>
+        <v>1.77734375</v>
       </c>
       <c r="C96" t="n">
-        <v>0.919921875</v>
+        <v>0.6395263671875</v>
       </c>
       <c r="D96" t="n">
-        <v>0.919921875</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E96" t="n">
-        <v>0.919921875</v>
+        <v>0.8646240234374999</v>
       </c>
     </row>
     <row r="97">
@@ -2075,16 +2075,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.46875</v>
+        <v>1.77734375</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9195556640625</v>
+        <v>0.6402587890625</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9195556640625</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9195556640625</v>
+        <v>0.8641357421875</v>
       </c>
     </row>
     <row r="98">
@@ -2092,16 +2092,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.46484375</v>
+        <v>1.87890625</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9193115234375</v>
+        <v>0.64013671875</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9193115234375</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9193115234375</v>
+        <v>0.8631591796875001</v>
       </c>
     </row>
     <row r="99">
@@ -2109,16 +2109,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.7578125</v>
+        <v>1.8828125</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9196777343749999</v>
+        <v>0.64013671875</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9196777343749999</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9196777343749999</v>
+        <v>0.8629150390625</v>
       </c>
     </row>
     <row r="100">
@@ -2126,16 +2126,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.8515625</v>
+        <v>1.6796875</v>
       </c>
       <c r="C100" t="n">
-        <v>0.96728515625</v>
+        <v>0.6419677734375</v>
       </c>
       <c r="D100" t="n">
-        <v>0.96728515625</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E100" t="n">
-        <v>0.96728515625</v>
+        <v>0.84716796875</v>
       </c>
     </row>
     <row r="101">
@@ -2143,16 +2143,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.80859375</v>
+        <v>1.5</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9588623046875</v>
+        <v>0.59716796875</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9588623046875</v>
+        <v>0.1103515625</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9588623046875</v>
+        <v>0.7613525390625</v>
       </c>
     </row>
     <row r="102">
@@ -2160,16 +2160,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.85546875</v>
+        <v>2.08984375</v>
       </c>
       <c r="C102" t="n">
-        <v>0.962646484375</v>
+        <v>0.6474609375</v>
       </c>
       <c r="D102" t="n">
-        <v>0.962646484375</v>
+        <v>0.107421875</v>
       </c>
       <c r="E102" t="n">
-        <v>0.962646484375</v>
+        <v>0.9522705078125</v>
       </c>
     </row>
     <row r="103">
@@ -2177,16 +2177,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.80078125</v>
+        <v>2.28125</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9659423828124999</v>
+        <v>0.650390625</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9659423828124999</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9659423828124999</v>
+        <v>0.9442138671875</v>
       </c>
     </row>
     <row r="104">
@@ -2194,16 +2194,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.7890625</v>
+        <v>2.28125</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9627685546874999</v>
+        <v>0.650390625</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9627685546874999</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9627685546874999</v>
+        <v>0.9428710937500001</v>
       </c>
     </row>
     <row r="105">
@@ -2211,16 +2211,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.8046875</v>
+        <v>2.54296875</v>
       </c>
       <c r="C105" t="n">
-        <v>0.96484375</v>
+        <v>0.6463623046875</v>
       </c>
       <c r="D105" t="n">
-        <v>0.96484375</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E105" t="n">
-        <v>0.96484375</v>
+        <v>0.9443359374999999</v>
       </c>
     </row>
     <row r="106">
@@ -2228,16 +2228,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.796875</v>
+        <v>2.54296875</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9636230468749999</v>
+        <v>0.6463623046875</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9636230468749999</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9636230468749999</v>
+        <v>0.944580078125</v>
       </c>
     </row>
     <row r="107">
@@ -2245,16 +2245,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.80078125</v>
+        <v>1.64453125</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9639892578124999</v>
+        <v>0.65869140625</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9639892578124999</v>
+        <v>0.10546875</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9639892578124999</v>
+        <v>0.9443359374999999</v>
       </c>
     </row>
     <row r="108">
@@ -2262,16 +2262,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.2265625</v>
+        <v>2.57421875</v>
       </c>
       <c r="C108" t="n">
-        <v>0.964599609375</v>
+        <v>0.6468505859375</v>
       </c>
       <c r="D108" t="n">
-        <v>0.964599609375</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E108" t="n">
-        <v>0.964599609375</v>
+        <v>0.944580078125</v>
       </c>
     </row>
     <row r="109">
@@ -2279,16 +2279,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.32421875</v>
+        <v>2.59765625</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9644775390625</v>
+        <v>0.650634765625</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9644775390625</v>
+        <v>0.107421875</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9644775390625</v>
+        <v>0.9444580078124999</v>
       </c>
     </row>
     <row r="110">
@@ -2296,16 +2296,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.3203125</v>
+        <v>2.59765625</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9643554687499999</v>
+        <v>0.6505126953125</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9643554687499999</v>
+        <v>0.107421875</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9643554687499999</v>
+        <v>0.9442138671875</v>
       </c>
     </row>
     <row r="111">
@@ -2313,16 +2313,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.32421875</v>
+        <v>2.5859375</v>
       </c>
       <c r="C111" t="n">
-        <v>0.96484375</v>
+        <v>0.650634765625</v>
       </c>
       <c r="D111" t="n">
-        <v>0.96484375</v>
+        <v>0.107421875</v>
       </c>
       <c r="E111" t="n">
-        <v>0.96484375</v>
+        <v>0.944580078125</v>
       </c>
     </row>
     <row r="112">
@@ -2330,16 +2330,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.265625</v>
+        <v>2.55078125</v>
       </c>
       <c r="C112" t="n">
-        <v>0.96337890625</v>
+        <v>0.650146484375</v>
       </c>
       <c r="D112" t="n">
-        <v>0.96337890625</v>
+        <v>0.107421875</v>
       </c>
       <c r="E112" t="n">
-        <v>0.96337890625</v>
+        <v>0.9437255859375001</v>
       </c>
     </row>
     <row r="113">
@@ -2347,16 +2347,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.25</v>
+        <v>2.55078125</v>
       </c>
       <c r="C113" t="n">
-        <v>0.96337890625</v>
+        <v>0.6500244140625</v>
       </c>
       <c r="D113" t="n">
-        <v>0.96337890625</v>
+        <v>0.107421875</v>
       </c>
       <c r="E113" t="n">
-        <v>0.96337890625</v>
+        <v>0.9458007812499999</v>
       </c>
     </row>
     <row r="114">
@@ -2364,16 +2364,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.28515625</v>
+        <v>2.48828125</v>
       </c>
       <c r="C114" t="n">
-        <v>0.954345703125</v>
+        <v>0.6494140625</v>
       </c>
       <c r="D114" t="n">
-        <v>0.954345703125</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E114" t="n">
-        <v>0.954345703125</v>
+        <v>0.9196777343749999</v>
       </c>
     </row>
     <row r="115">
@@ -2381,16 +2381,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.28515625</v>
+        <v>2.4921875</v>
       </c>
       <c r="C115" t="n">
-        <v>0.954345703125</v>
+        <v>0.6492919921875</v>
       </c>
       <c r="D115" t="n">
-        <v>0.954345703125</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E115" t="n">
-        <v>0.954345703125</v>
+        <v>0.9196777343749999</v>
       </c>
     </row>
     <row r="116">
@@ -2398,16 +2398,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.28515625</v>
+        <v>2.48046875</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9549560546874999</v>
+        <v>0.6492919921875</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9549560546874999</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9549560546874999</v>
+        <v>0.9197998046875</v>
       </c>
     </row>
     <row r="117">
@@ -2415,16 +2415,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.296875</v>
+        <v>2.484375</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9608154296875001</v>
+        <v>0.6494140625</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9608154296875001</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9608154296875001</v>
+        <v>0.9185791015625</v>
       </c>
     </row>
     <row r="118">
@@ -2432,16 +2432,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.28515625</v>
+        <v>2.1953125</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9578857421875</v>
+        <v>0.65234375</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9578857421875</v>
+        <v>0.107421875</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9578857421875</v>
+        <v>0.8361816406249999</v>
       </c>
     </row>
   </sheetData>
